--- a/Arquivados/ARQUIVO ISADORA.xlsx
+++ b/Arquivados/ARQUIVO ISADORA.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21FB028-3F50-4285-A85E-2D55FEF5C3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781A57C2-9662-4326-954E-67A3DF5C1F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
     <sheet name="Fervereiro" sheetId="3" r:id="rId2"/>
     <sheet name="Março" sheetId="4" r:id="rId3"/>
     <sheet name="Abril" sheetId="6" r:id="rId4"/>
-    <sheet name="RELATORIO" sheetId="5" r:id="rId5"/>
+    <sheet name="Planilha1" sheetId="7" r:id="rId5"/>
+    <sheet name="RELATORIO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -123,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -184,6 +185,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1865,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="A1:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2426,6 +2433,370 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DD4DB2-85B2-4EBF-A982-F50652CDFF22}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>45047</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>45048</v>
+      </c>
+      <c r="B3" s="20">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21">
+        <v>7</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="20">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>45049</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>45050</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>45051</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>45052</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>45053</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>45054</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>45055</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>45056</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>45057</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>45058</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>45059</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>45060</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>45061</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>45062</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>45063</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>45064</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>45065</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>45066</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>45067</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>45068</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>45069</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>45070</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>45071</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>45072</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>45073</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>45074</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>45075</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>45076</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>45077</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="6">
+        <f>SUM(B2:B31)</f>
+        <v>1</v>
+      </c>
+      <c r="C33" s="7">
+        <f>SUM(C2:C31)</f>
+        <v>7</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/Arquivados/ARQUIVO ISADORA.xlsx
+++ b/Arquivados/ARQUIVO ISADORA.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781A57C2-9662-4326-954E-67A3DF5C1F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B26D306-80EB-4A75-B823-0459ADD73B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
     <sheet name="Fervereiro" sheetId="3" r:id="rId2"/>
     <sheet name="Março" sheetId="4" r:id="rId3"/>
     <sheet name="Abril" sheetId="6" r:id="rId4"/>
-    <sheet name="Planilha1" sheetId="7" r:id="rId5"/>
+    <sheet name="Maio" sheetId="7" r:id="rId5"/>
     <sheet name="RELATORIO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -181,16 +181,16 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1313,10 +1313,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="A1:E32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1893,10 +1893,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -2436,7 +2436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DD4DB2-85B2-4EBF-A982-F50652CDFF22}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -2457,10 +2457,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -2534,244 +2534,244 @@
       <c r="A6" s="9">
         <v>45051</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>45052</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>45053</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>45054</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>45055</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>45056</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>45057</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>45058</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>45059</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>45060</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>45061</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>45062</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>45063</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>45064</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>45065</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>45066</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>45067</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>45068</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>45069</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>45070</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>45071</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>45072</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>45073</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>45074</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>45075</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>45076</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>45077</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
@@ -2807,27 +2807,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
         <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
         <v>132</v>

--- a/Arquivados/ARQUIVO ISADORA.xlsx
+++ b/Arquivados/ARQUIVO ISADORA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B26D306-80EB-4A75-B823-0459ADD73B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96830C3-1CB2-481B-A34F-3257CFE25CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -1872,7 +1872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -2436,8 +2436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DD4DB2-85B2-4EBF-A982-F50652CDFF22}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2534,55 +2534,103 @@
       <c r="A6" s="9">
         <v>45051</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="B6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>45052</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="B7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>45053</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="B8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>45054</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="B9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>45055</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="B10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="19">
         <v>45056</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="B11" s="20">
+        <v>1</v>
+      </c>
+      <c r="C11" s="21">
+        <v>7</v>
+      </c>
+      <c r="D11" s="20">
+        <v>54</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -2779,11 +2827,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B31)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C31)</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>

--- a/Arquivados/ARQUIVO ISADORA.xlsx
+++ b/Arquivados/ARQUIVO ISADORA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96830C3-1CB2-481B-A34F-3257CFE25CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64FDC91-E653-4535-A222-DCD56975F064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -2436,8 +2436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DD4DB2-85B2-4EBF-A982-F50652CDFF22}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2636,64 +2636,120 @@
       <c r="A12" s="9">
         <v>45057</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
+      <c r="B12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>45058</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="B13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>45059</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="B14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>45060</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="B15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>45061</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="B16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="19">
         <v>45062</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="B17" s="20">
+        <v>1</v>
+      </c>
+      <c r="C17" s="21">
+        <v>7</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="20">
+        <v>54</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>45063</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="B18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
@@ -2827,11 +2883,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B31)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C31)</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>

--- a/Arquivados/ARQUIVO ISADORA.xlsx
+++ b/Arquivados/ARQUIVO ISADORA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64FDC91-E653-4535-A222-DCD56975F064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B597098A-2462-44F3-9DF1-4F72D6AE72B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -2437,7 +2437,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,55 +2755,103 @@
       <c r="A19" s="9">
         <v>45064</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="B19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>45065</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
+      <c r="B20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>45066</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
+      <c r="B21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>45067</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
+      <c r="B22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>45068</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
+      <c r="B23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="16">
         <v>45069</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
+      <c r="B24" s="20">
+        <v>1</v>
+      </c>
+      <c r="C24" s="21">
+        <v>7</v>
+      </c>
+      <c r="D24" s="20">
+        <v>54</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
@@ -2811,8 +2859,6 @@
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
@@ -2883,11 +2929,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B31)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C31)</f>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>

--- a/Arquivados/ARQUIVO ISADORA.xlsx
+++ b/Arquivados/ARQUIVO ISADORA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B597098A-2462-44F3-9DF1-4F72D6AE72B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD968A8-54E8-4EA9-906C-E3DAFBB5D313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -13,14 +13,15 @@
     <sheet name="Março" sheetId="4" r:id="rId3"/>
     <sheet name="Abril" sheetId="6" r:id="rId4"/>
     <sheet name="Maio" sheetId="7" r:id="rId5"/>
-    <sheet name="RELATORIO" sheetId="5" r:id="rId6"/>
+    <sheet name="Junho" sheetId="8" r:id="rId6"/>
+    <sheet name="RELATORIO" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="10">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -48,6 +49,9 @@
   <si>
     <t>NULL</t>
   </si>
+  <si>
+    <t>null</t>
+  </si>
 </sst>
 </file>
 
@@ -65,7 +69,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,6 +97,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -124,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -192,6 +202,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -211,9 +272,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -251,9 +312,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,26 +347,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -338,26 +382,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2436,8 +2463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DD4DB2-85B2-4EBF-A982-F50652CDFF22}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="A1:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2947,6 +2974,395 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5286BD5-7217-428D-939B-1942225C87C5}">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="39" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>45078</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>45079</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>45080</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>45081</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>45082</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="41">
+        <v>45083</v>
+      </c>
+      <c r="B7" s="40">
+        <v>1</v>
+      </c>
+      <c r="C7" s="42">
+        <v>7</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="40">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>45084</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>45085</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
+        <v>45086</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
+        <v>45087</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
+        <v>45088</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
+        <v>45089</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
+        <v>45090</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
+        <v>45091</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
+        <v>45092</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
+        <v>45093</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
+        <v>45094</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
+        <v>45095</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
+        <v>45096</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
+        <v>45097</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="31">
+        <v>45098</v>
+      </c>
+      <c r="B22" s="37"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
+        <v>45099</v>
+      </c>
+      <c r="B23" s="37"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="31">
+        <v>45100</v>
+      </c>
+      <c r="B24" s="37"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
+        <v>45101</v>
+      </c>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
+        <v>45102</v>
+      </c>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="31">
+        <v>45103</v>
+      </c>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="31">
+        <v>45104</v>
+      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="31">
+        <v>45105</v>
+      </c>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="31">
+        <v>45106</v>
+      </c>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="31">
+        <v>45107</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="27">
+        <f>SUM(B28:B31)</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="28">
+        <f>SUM(C28:C31)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
